--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/SOUTH_CAROLINA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/SOUTH_CAROLINA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1263"/>
+  <dimension ref="A1:D1257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C27">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C30">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C32">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C42">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C64">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C69">
@@ -1395,7 +1395,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C78">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C79">
@@ -1714,7 +1714,7 @@
         <v>830</v>
       </c>
       <c r="D102">
-        <v>0.09185480301018149</v>
+        <v>0.09185480301018148</v>
       </c>
     </row>
     <row r="103">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C109">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C110">
@@ -2055,7 +2055,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C128">
@@ -2177,7 +2177,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2603,12 +2603,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C169">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C171">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C172">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C177">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C182">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C185">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C189">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C196">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C209">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C218">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C220">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C228">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C234">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C239">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C240">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C241">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C242">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C254">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C255">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C262">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C274">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C276">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C278">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C279">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C280">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C283">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C289">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C293">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C298">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C301">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C307">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C313">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C317">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C324">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C327">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C329">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C332">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C343">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C345">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C347">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C348">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C351">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C366">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C372">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C375">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C379">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C382">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C388">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C390">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C391">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C393">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C394">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C397">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C402">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C403">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C407">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C409">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C410">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C412">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C418">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C419">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C423">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C427">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C429">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C435">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C440">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C442">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C444">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C446">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C451">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C453">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C455">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C458">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C459">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C461">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C462">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C471">
@@ -6806,7 +6806,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C490">
@@ -7352,7 +7352,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C532">
@@ -7591,7 +7591,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C550">
@@ -7734,7 +7734,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C561">
@@ -7786,7 +7786,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C565">
@@ -7799,7 +7799,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C566">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C574">
@@ -7947,7 +7947,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C577">
@@ -7999,7 +7999,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C581">
@@ -8186,7 +8186,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C595">
@@ -8225,7 +8225,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C598">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C604">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C607">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C610">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C617">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C618">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C627">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C629">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C631">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C632">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C636">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C637">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C639">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C650">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C659">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C662">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C676">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C681">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C689">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C690">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C719">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C720">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C727">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C744">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C750">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C762">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C766">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C796">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C807">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C808">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C814">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C815">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C816">
@@ -11238,7 +11238,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C829">
@@ -11537,7 +11537,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C852">
@@ -11563,7 +11563,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C854">
@@ -11680,7 +11680,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C863">
@@ -11771,7 +11771,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C870">
@@ -11875,7 +11875,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C878">
@@ -11888,7 +11888,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C879">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C886">
@@ -12018,7 +12018,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C889">
@@ -12031,7 +12031,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C890">
@@ -12083,7 +12083,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C894">
@@ -12239,7 +12239,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C906">
@@ -12278,7 +12278,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C909">
@@ -12413,7 +12413,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C919">
@@ -12439,7 +12439,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C921">
@@ -12504,7 +12504,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C926">
@@ -12517,7 +12517,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C927">
@@ -12543,7 +12543,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C929">
@@ -12582,7 +12582,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C932">
@@ -12735,7 +12735,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C943">
@@ -12748,7 +12748,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C944">
@@ -12813,7 +12813,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C949">
@@ -12930,7 +12930,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C958">
@@ -12982,7 +12982,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C962">
@@ -13060,7 +13060,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C968">
@@ -13073,7 +13073,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C969">
@@ -13190,7 +13190,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C978">
@@ -13203,7 +13203,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C979">
@@ -13216,7 +13216,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C980">
@@ -13699,7 +13699,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1016">
@@ -13977,7 +13977,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1037">
@@ -14125,7 +14125,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1048">
@@ -14164,7 +14164,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1051">
@@ -14177,7 +14177,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1052">
@@ -14216,7 +14216,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1055">
@@ -14242,7 +14242,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1057">
@@ -14255,7 +14255,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1058">
@@ -14481,7 +14481,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1075">
@@ -14572,7 +14572,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1082">
@@ -14598,7 +14598,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1084">
@@ -14650,7 +14650,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1088">
@@ -14871,7 +14871,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1105">
@@ -14884,7 +14884,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1106">
@@ -15105,7 +15105,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1123">
@@ -15118,7 +15118,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1124">
@@ -15157,7 +15157,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1127">
@@ -15170,7 +15170,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1128">
@@ -15183,7 +15183,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1129">
@@ -15326,7 +15326,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1140">
@@ -15365,7 +15365,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1143">
@@ -15404,7 +15404,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1146">
@@ -15469,7 +15469,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1151">
@@ -15495,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1153">
@@ -15586,7 +15586,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1160">
@@ -15625,7 +15625,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1163">
@@ -15638,7 +15638,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1164">
@@ -15690,7 +15690,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1168">
@@ -15794,7 +15794,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1176">
@@ -15833,7 +15833,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1179">
@@ -15872,7 +15872,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1182">
@@ -16093,7 +16093,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1199">
@@ -16236,7 +16236,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1210">
@@ -16366,7 +16366,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1220">
@@ -16545,7 +16545,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1233">
@@ -16623,7 +16623,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1239">
@@ -16662,7 +16662,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1242">
@@ -16675,7 +16675,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1243">
@@ -16851,7 +16851,7 @@
         <v>83</v>
       </c>
       <c r="D1256">
-        <v>0.009185480301018149</v>
+        <v>0.009185480301018147</v>
       </c>
     </row>
     <row r="1257">
@@ -16865,41 +16865,6 @@
       </c>
       <c r="D1257">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
